--- a/3 Overall/Cog Aging 2022/4 Demographics Table/Healthy Older Adult Demographics.xlsx
+++ b/3 Overall/Cog Aging 2022/4 Demographics Table/Healthy Older Adult Demographics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\Spring-2019-Projects\CVOE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\CVOE-2021\3 Overall\Cog Aging 2022\4 Demographics Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A081A486-401B-48F6-AC1E-6FC2822B482E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E34A30C-2B3D-4B70-80F7-26B6E7A205C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="11040" xr2:uid="{EB99164A-087C-476D-B028-7931D0938F9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{EB99164A-087C-476D-B028-7931D0938F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="84">
   <si>
     <t>Last Name</t>
   </si>
@@ -635,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA558354-FF59-4EB6-A511-BA86CC0289F9}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,60 +1685,292 @@
       <c r="A27">
         <v>3001</v>
       </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27">
+        <v>70</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3002</v>
       </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3003</v>
       </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3004</v>
       </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30">
+        <v>63</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3006</v>
+        <v>3005</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31">
+        <v>78</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>3006</v>
+      </c>
+      <c r="G32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32">
+        <v>58</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>3007</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33">
+        <v>70</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>3008</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="G34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34">
+        <v>81</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>3009</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35">
+        <v>83</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>3010</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36">
+        <v>85</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3011</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37">
+        <v>80</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>3012</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38">
+        <v>90</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>3013</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39">
+        <v>83</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>3014</v>
+      </c>
+      <c r="G40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3015</v>
+      </c>
+      <c r="G41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3016</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42">
+        <v>70</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3017</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43">
+        <v>81</v>
+      </c>
+      <c r="J43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
